--- a/出入库自动化用例.xlsx
+++ b/出入库自动化用例.xlsx
@@ -84,28 +84,10 @@
     <t>购销计划</t>
   </si>
   <si>
-    <t>1、新增购销计划
-2、提交审核购销计划
-3、删除购销计划
-4、购销计划条件查询</t>
-  </si>
-  <si>
     <t>轮换计划</t>
   </si>
   <si>
-    <t>1、新增轮换计划
-2、提交审核轮换计划
-3、删除轮换计划
-4、购销计划条件查询</t>
-  </si>
-  <si>
     <t>调入调出计划</t>
-  </si>
-  <si>
-    <t>1、新增调入调出计划
-2、提交审核调入调出计划
-3、删除调入调出计划
-4、调入调出计划条件查询</t>
   </si>
   <si>
     <t>合同管理</t>
@@ -331,6 +313,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>吴岑龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1.新增出库通知书
 2.查询出库通知书
 3.提交出库通知书</t>
@@ -343,7 +329,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>吴岑龙</t>
+    <t>1、新增购销计划
+2、提交审核购销计划
+3、删除购销计划
+4、购销计划条件查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、新增轮换计划
+2、提交审核轮换计划
+3、删除轮换计划
+4、购销计划条件查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、新增调入调出计划
+2、提交审核调入调出计划
+3、删除调入调出计划
+4、调入调出计划条件查询</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -709,8 +712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -752,7 +755,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
@@ -766,7 +769,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -775,7 +778,7 @@
         <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
@@ -785,7 +788,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -794,7 +797,7 @@
         <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -820,7 +823,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
@@ -829,7 +832,7 @@
         <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="54" x14ac:dyDescent="0.15">
@@ -841,7 +844,7 @@
         <v>20</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -851,10 +854,10 @@
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
@@ -864,10 +867,10 @@
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
@@ -876,13 +879,13 @@
     <row r="9" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A9" s="5"/>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -891,13 +894,13 @@
     <row r="10" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
       <c r="B10" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -907,10 +910,10 @@
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -918,13 +921,13 @@
     </row>
     <row r="12" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F12" t="s">
         <v>11</v>
@@ -933,10 +936,10 @@
     <row r="13" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="5"/>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F13" t="s">
         <v>11</v>
@@ -945,10 +948,10 @@
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="5"/>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F14" t="s">
         <v>11</v>
@@ -957,10 +960,10 @@
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F15" t="s">
         <v>11</v>
@@ -969,10 +972,10 @@
     <row r="16" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F16" t="s">
         <v>11</v>
@@ -981,10 +984,10 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="5"/>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F17" t="s">
         <v>11</v>
@@ -993,10 +996,10 @@
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="5"/>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
         <v>11</v>
@@ -1005,13 +1008,13 @@
     <row r="19" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
       <c r="B19" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F19" t="s">
         <v>11</v>
@@ -1021,10 +1024,10 @@
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
@@ -1034,7 +1037,7 @@
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F21" t="s">
         <v>15</v>
@@ -1046,13 +1049,13 @@
     <row r="22" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A22" s="5"/>
       <c r="B22" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F22" t="s">
         <v>11</v>
@@ -1062,10 +1065,10 @@
       <c r="A23" s="5"/>
       <c r="B23" s="6"/>
       <c r="C23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F23" t="s">
         <v>11</v>
@@ -1074,13 +1077,13 @@
     <row r="24" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A24" s="5"/>
       <c r="B24" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F24" t="s">
         <v>11</v>
@@ -1090,10 +1093,10 @@
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F25" t="s">
         <v>11</v>
@@ -1101,16 +1104,16 @@
     </row>
     <row r="26" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F26" t="s">
         <v>11</v>
@@ -1120,10 +1123,10 @@
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F27" t="s">
         <v>11</v>
@@ -1132,13 +1135,13 @@
     <row r="28" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C28" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F28" t="s">
         <v>11</v>
@@ -1146,16 +1149,16 @@
     </row>
     <row r="29" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C29" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F29" t="s">
         <v>11</v>
@@ -1165,10 +1168,10 @@
       <c r="A30" s="5"/>
       <c r="B30" s="6"/>
       <c r="C30" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F30" t="s">
         <v>11</v>
@@ -1178,10 +1181,10 @@
       <c r="A31" s="5"/>
       <c r="B31" s="6"/>
       <c r="C31" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F31" t="s">
         <v>11</v>
@@ -1191,10 +1194,10 @@
       <c r="A32" s="5"/>
       <c r="B32" s="6"/>
       <c r="C32" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F32" t="s">
         <v>11</v>
@@ -1203,13 +1206,13 @@
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="5"/>
       <c r="B33" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C33" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D33" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F33" t="s">
         <v>11</v>
@@ -1219,10 +1222,10 @@
       <c r="A34" s="5"/>
       <c r="B34" s="6"/>
       <c r="C34" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D34" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F34" t="s">
         <v>11</v>

--- a/出入库自动化用例.xlsx
+++ b/出入库自动化用例.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="7950"/>
+    <workbookView windowWidth="20385" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93">
   <si>
     <t>一级菜单</t>
   </si>
@@ -30,21 +30,24 @@
     <t>三级菜单</t>
   </si>
   <si>
+    <t>测试用例</t>
+  </si>
+  <si>
+    <t>测试数据</t>
+  </si>
+  <si>
     <t>是否要自动化</t>
   </si>
   <si>
     <t>进度</t>
   </si>
   <si>
-    <t>测试用例</t>
-  </si>
-  <si>
-    <t>测试数据</t>
-  </si>
-  <si>
     <t>备注</t>
   </si>
   <si>
+    <t>脚本开发人</t>
+  </si>
+  <si>
     <t>业务管理</t>
   </si>
   <si>
@@ -54,15 +57,28 @@
     <t>入库通知书</t>
   </si>
   <si>
+    <t>1.新增入库通知书
+2.查询入库通知书
+3.提交入库通知书</t>
+  </si>
+  <si>
     <t>是</t>
   </si>
   <si>
     <t>完成</t>
   </si>
   <si>
+    <t>吴岑龙</t>
+  </si>
+  <si>
     <t>出库通知书</t>
   </si>
   <si>
+    <t>1.新增出库通知书
+2.查询出库通知书
+3.提交出库通知书</t>
+  </si>
+  <si>
     <t>单据完成报告单</t>
   </si>
   <si>
@@ -78,26 +94,44 @@
     <t>出库提货单</t>
   </si>
   <si>
+    <t>1.新增出库提货单
+2.查询出库提货单
+3.提交出库提货单</t>
+  </si>
+  <si>
     <t>计划管理</t>
   </si>
   <si>
     <t>购销计划</t>
   </si>
   <si>
+    <t>1、新增购销计划
+2、购销计划条件查询
+3、提交审核购销计划</t>
+  </si>
+  <si>
     <t>轮换计划</t>
   </si>
   <si>
+    <t>1、新增轮换计划
+2、购销计划条件查询
+3、提交审核轮换计划</t>
+  </si>
+  <si>
     <t>调入调出计划</t>
   </si>
   <si>
+    <t>1、新增调入调出计划
+2、调入调出计划条件查询
+3、提交审核调入调出计划</t>
+  </si>
+  <si>
     <t>合同管理</t>
   </si>
   <si>
     <t>1、新增合同
-2、删除合同
-3、提交审核合同数据
-4、合同附件维护
-5、合同数据条件查询</t>
+2、合同数据条件查询
+3、提交审核合同数据</t>
   </si>
   <si>
     <t>代办事项</t>
@@ -106,9 +140,22 @@
     <t>审批处理</t>
   </si>
   <si>
-    <t>1、数据审核通过
-2、数据审核驳回
-3、待审数据条件查询</t>
+    <t>1、待审数据条件查询
+2、数据审核通过（审核名目）
+【合同数据审批（通过、驳回）】
+【购销计划数据审批（通过、驳回）】
+【轮换计划数据审批（通过、驳回）】
+【调入调出计划数据审批（通过、驳回）】
+【入库通知书数据审批（通过、驳回）】
+【出库通知书数据审批（通过、驳回）】
+【出库提货单数据审批（通过、驳回）】
+【入库单录入数据审批（通过、驳回）】
+【出库单录入数据审批（通过、驳回）】
+【质检报告单数据审批（通过、驳回）】
+【初期库存数据审批（通过、驳回）】
+【库存属性调整数据审批（通过、驳回）】
+【损溢管理数据审批（通过、驳回）】
+【倒仓作业数据审批（通过、驳回）】</t>
   </si>
   <si>
     <t>审批查询</t>
@@ -161,6 +208,9 @@
     <t>1、值仓查询列表数据查看</t>
   </si>
   <si>
+    <t>APP端数据相关，暂不涉及</t>
+  </si>
+  <si>
     <t>库内结算</t>
   </si>
   <si>
@@ -187,6 +237,9 @@
     <t>作业图像查询</t>
   </si>
   <si>
+    <t>硬件数据读取，不涉及</t>
+  </si>
+  <si>
     <t>手工录入</t>
   </si>
   <si>
@@ -194,18 +247,16 @@
   </si>
   <si>
     <t>1、新增入库单
-2、入库单提交审核
-3、入库单列表条件查询
-4、删除入库单</t>
+2、入库单列表条件查询
+3、入库单提交审核</t>
   </si>
   <si>
     <t>出库单录入</t>
   </si>
   <si>
     <t>1、新增出库单
-2、出库单提交审核
-3、出库单列表条件查询
-4、删除出库单</t>
+2、出库单列表条件查询
+3、出库单提交审核</t>
   </si>
   <si>
     <t>出入库单管理</t>
@@ -234,9 +285,9 @@
   </si>
   <si>
     <t>1、新增质检报告单
-2、提交审核质检报告单
-3、质检报告单发起流程
-4、质检报告单列表查询</t>
+2、质检报告单列表查询
+3、提交审核质检报告单
+4、质检报告单发起流程</t>
   </si>
   <si>
     <t>不宜存粮管理</t>
@@ -260,16 +311,19 @@
   </si>
   <si>
     <t>1、新增仓房初期库存
-2、提交审核初期库存数据
-3、初期库存列表数据查询</t>
+2、初期库存列表数据查询
+3、提交审核初期库存数据</t>
+  </si>
+  <si>
+    <t>姜炜</t>
   </si>
   <si>
     <t>库存属性调整</t>
   </si>
   <si>
     <t>1、新增库存属性调整数据
-2、提交审核库存属性调整信息
-3、库存属性调整数据列表查询</t>
+2、库存属性调整数据列表查询
+3、提交审核库存属性调整信息</t>
   </si>
   <si>
     <t>损溢管理</t>
@@ -283,9 +337,9 @@
   </si>
   <si>
     <t>1、新增倒仓信息
-2、提交审核倒仓数据
-3、倒仓数据记账
-4、倒仓数据列表查询</t>
+2、倒仓数据列表查询
+3、提交审核倒仓数据
+4、倒仓数据记账</t>
   </si>
   <si>
     <t>库存查询</t>
@@ -301,60 +355,19 @@
   </si>
   <si>
     <t>1、品种分类列表数据查询显示</t>
-  </si>
-  <si>
-    <t>脚本开发人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.新增入库通知书
-2.查询入库通知书
-3.提交入库通知书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴岑龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.新增出库通知书
-2.查询出库通知书
-3.提交出库通知书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.新增出库提货单
-2.查询出库提货单
-3.提交出库提货单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、新增购销计划
-2、提交审核购销计划
-3、删除购销计划
-4、购销计划条件查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、新增轮换计划
-2、提交审核轮换计划
-3、删除轮换计划
-4、购销计划条件查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、新增调入调出计划
-2、提交审核调入调出计划
-3、删除调入调出计划
-4、调入调出计划条件查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -363,21 +376,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -385,35 +722,321 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -704,24 +1327,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.25" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.625" customWidth="1"/>
-    <col min="4" max="4" width="30.375" customWidth="1"/>
+    <col min="4" max="4" width="36.75" customWidth="1"/>
     <col min="5" max="5" width="18.125" customWidth="1"/>
     <col min="6" max="6" width="12.875" customWidth="1"/>
     <col min="7" max="7" width="11.375" customWidth="1"/>
@@ -729,7 +1352,7 @@
     <col min="9" max="9" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -740,495 +1363,504 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" ht="40.5" spans="1:9">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" ht="40.5" spans="1:9">
+      <c r="A3" s="2"/>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2"/>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" ht="40.5" spans="1:9">
+      <c r="A5" s="2"/>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" ht="40.5" spans="1:6">
+      <c r="A6" s="2"/>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" ht="40.5" spans="1:6">
+      <c r="A7" s="2"/>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" ht="40.5" spans="1:6">
+      <c r="A8" s="2"/>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" ht="40.5" spans="1:6">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" ht="216" spans="1:6">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" ht="27" spans="1:6">
+      <c r="A11" s="2"/>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" ht="40.5" spans="1:6">
+      <c r="A12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" ht="27" spans="1:6">
+      <c r="A13" s="2"/>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2"/>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2"/>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" ht="27" spans="1:6">
+      <c r="A16" s="2"/>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="2"/>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2"/>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" ht="27" spans="1:6">
+      <c r="A19" s="2"/>
+      <c r="B19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" ht="27" spans="1:6">
+      <c r="A20" s="2"/>
+      <c r="C20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="2"/>
+      <c r="C21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" ht="40.5" spans="1:6">
+      <c r="A22" s="2"/>
+      <c r="B22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" ht="40.5" spans="1:6">
+      <c r="A23" s="2"/>
+      <c r="C23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" ht="40.5" spans="1:6">
+      <c r="A24" s="2"/>
+      <c r="B24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" ht="40.5" spans="1:6">
+      <c r="A25" s="2"/>
+      <c r="C25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" ht="54" spans="1:6">
+      <c r="A26" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" ht="27" spans="1:6">
+      <c r="A27" s="2"/>
+      <c r="C27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" ht="27" spans="1:6">
+      <c r="A28" s="2"/>
+      <c r="B28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" ht="40.5" spans="1:9">
+      <c r="A29" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F29" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" ht="40.5" spans="1:9">
+      <c r="A30" s="2"/>
+      <c r="C30" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="D30" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="F30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" ht="27" spans="1:9">
+      <c r="A31" s="2"/>
+      <c r="C31" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="D31" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="F31" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" ht="54" spans="1:9">
+      <c r="A32" s="2"/>
+      <c r="C32" t="s">
         <v>86</v>
       </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="54" x14ac:dyDescent="0.15">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="54" x14ac:dyDescent="0.15">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="F32" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="2"/>
+      <c r="B33" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="54" x14ac:dyDescent="0.15">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="C33" t="s">
         <v>89</v>
       </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="5"/>
-      <c r="B9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A13" s="5"/>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="5"/>
-      <c r="B14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="5"/>
-      <c r="B15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A16" s="5"/>
-      <c r="B16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="5"/>
-      <c r="B17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="5"/>
-      <c r="B18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
-      <c r="C21" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6"/>
-      <c r="C23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6"/>
-      <c r="C25" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A26" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6"/>
-      <c r="C27" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F27" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A28" s="5"/>
-      <c r="B28" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F28" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A29" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" t="s">
-        <v>69</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F29" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6"/>
-      <c r="C30" t="s">
-        <v>71</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6"/>
-      <c r="C31" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A32" s="5"/>
-      <c r="B32" s="6"/>
-      <c r="C32" t="s">
-        <v>75</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F32" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" s="5"/>
-      <c r="B33" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C33" t="s">
-        <v>78</v>
-      </c>
       <c r="D33" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A34" s="5"/>
-      <c r="B34" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="I33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="2"/>
       <c r="C34" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="D34" t="s">
+        <v>92</v>
+      </c>
+      <c r="F34" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" t="s">
         <v>81</v>
-      </c>
-      <c r="F34" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1247,42 +1879,48 @@
     <mergeCell ref="B29:B32"/>
     <mergeCell ref="B33:B34"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G1:G1048576">
-      <formula1>"完成,进行中,未开始,——"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F507">
       <formula1>"是,否"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G$1:G$1048576">
+      <formula1>"完成,进行中,未开始,——"</formula1>
+    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/出入库自动化用例.xlsx
+++ b/出入库自动化用例.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="93">
   <si>
     <t>一级菜单</t>
   </si>
@@ -360,14 +360,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -376,345 +370,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -722,259 +392,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -985,58 +410,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1327,19 +782,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.25" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" customWidth="1"/>
@@ -1352,7 +808,7 @@
     <col min="9" max="9" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1381,17 +837,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="40.5" spans="1:9">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F2" t="s">
@@ -1404,12 +860,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" ht="40.5" spans="1:9">
-      <c r="A3" s="2"/>
+    <row r="3" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
       <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F3" t="s">
@@ -1422,8 +879,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="2"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
       <c r="C4" t="s">
         <v>18</v>
       </c>
@@ -1437,12 +895,13 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" ht="40.5" spans="1:9">
-      <c r="A5" s="2"/>
+    <row r="5" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
       <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F5" t="s">
@@ -1455,115 +914,118 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" ht="40.5" spans="1:6">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" ht="40.5" spans="1:6">
-      <c r="A7" s="2"/>
+    <row r="7" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
       <c r="C7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>28</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" ht="40.5" spans="1:6">
-      <c r="A8" s="2"/>
+    <row r="8" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
       <c r="C8" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" ht="40.5" spans="1:6">
-      <c r="A9" s="2"/>
+    <row r="9" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="5"/>
       <c r="B9" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C9" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>32</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" ht="216" spans="1:6">
-      <c r="A10" s="2"/>
-      <c r="B10" s="1" t="s">
+    <row r="10" spans="1:9" ht="216" x14ac:dyDescent="0.15">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C10" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" ht="27" spans="1:6">
-      <c r="A11" s="2"/>
+    <row r="11" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
       <c r="C11" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" ht="40.5" spans="1:6">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B12" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" ht="27" spans="1:6">
-      <c r="A13" s="2"/>
+    <row r="13" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A13" s="5"/>
       <c r="B13" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="2"/>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="5"/>
       <c r="B14" t="s">
         <v>43</v>
       </c>
@@ -1574,8 +1036,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="2"/>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="5"/>
       <c r="B15" t="s">
         <v>45</v>
       </c>
@@ -1586,20 +1048,20 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" ht="27" spans="1:6">
-      <c r="A16" s="2"/>
+    <row r="16" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A16" s="5"/>
       <c r="B16" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>48</v>
       </c>
       <c r="F16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="2"/>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" s="5"/>
       <c r="B17" t="s">
         <v>49</v>
       </c>
@@ -1613,8 +1075,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="2"/>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" s="5"/>
       <c r="B18" t="s">
         <v>52</v>
       </c>
@@ -1625,35 +1087,37 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" ht="27" spans="1:6">
-      <c r="A19" s="2"/>
-      <c r="B19" s="1" t="s">
+    <row r="19" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6" t="s">
         <v>54</v>
       </c>
       <c r="C19" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" ht="27" spans="1:6">
-      <c r="A20" s="2"/>
+    <row r="20" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
       <c r="C20" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>58</v>
       </c>
       <c r="F20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="2"/>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
       <c r="C21" t="s">
         <v>59</v>
       </c>
@@ -1667,115 +1131,118 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" ht="40.5" spans="1:6">
-      <c r="A22" s="2"/>
-      <c r="B22" s="1" t="s">
+    <row r="22" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6" t="s">
         <v>61</v>
       </c>
       <c r="C22" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" ht="40.5" spans="1:6">
-      <c r="A23" s="2"/>
+    <row r="23" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
       <c r="C23" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F23" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" ht="40.5" spans="1:6">
-      <c r="A24" s="2"/>
-      <c r="B24" s="1" t="s">
+    <row r="24" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="5"/>
+      <c r="B24" s="6" t="s">
         <v>66</v>
       </c>
       <c r="C24" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" ht="40.5" spans="1:6">
-      <c r="A25" s="2"/>
+    <row r="25" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
       <c r="C25" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>70</v>
       </c>
       <c r="F25" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="26" ht="54" spans="1:6">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+      <c r="A26" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="6" t="s">
         <v>71</v>
       </c>
       <c r="C26" t="s">
         <v>72</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="2" t="s">
         <v>73</v>
       </c>
       <c r="F26" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" ht="27" spans="1:6">
-      <c r="A27" s="2"/>
+    <row r="27" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
       <c r="C27" t="s">
         <v>74</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>75</v>
       </c>
       <c r="F27" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" ht="27" spans="1:6">
-      <c r="A28" s="2"/>
+    <row r="28" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A28" s="5"/>
       <c r="B28" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C28" t="s">
         <v>76</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F28" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="29" ht="40.5" spans="1:9">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A29" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="6" t="s">
         <v>78</v>
       </c>
       <c r="C29" t="s">
         <v>79</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="2" t="s">
         <v>80</v>
       </c>
       <c r="F29" t="s">
@@ -1785,12 +1252,13 @@
         <v>81</v>
       </c>
     </row>
-    <row r="30" ht="40.5" spans="1:9">
-      <c r="A30" s="2"/>
+    <row r="30" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6"/>
       <c r="C30" t="s">
         <v>82</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F30" t="s">
@@ -1800,12 +1268,13 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" ht="27" spans="1:9">
-      <c r="A31" s="2"/>
+    <row r="31" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A31" s="5"/>
+      <c r="B31" s="6"/>
       <c r="C31" t="s">
         <v>84</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="2" t="s">
         <v>85</v>
       </c>
       <c r="F31" t="s">
@@ -1815,12 +1284,13 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" ht="54" spans="1:9">
-      <c r="A32" s="2"/>
+    <row r="32" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+      <c r="A32" s="5"/>
+      <c r="B32" s="6"/>
       <c r="C32" t="s">
         <v>86</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="2" t="s">
         <v>87</v>
       </c>
       <c r="F32" t="s">
@@ -1830,9 +1300,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="2"/>
-      <c r="B33" s="1" t="s">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A33" s="5"/>
+      <c r="B33" s="6" t="s">
         <v>88</v>
       </c>
       <c r="C33" t="s">
@@ -1848,8 +1318,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="2"/>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A34" s="5"/>
+      <c r="B34" s="6"/>
       <c r="C34" t="s">
         <v>91</v>
       </c>
@@ -1879,48 +1350,52 @@
     <mergeCell ref="B29:B32"/>
     <mergeCell ref="B33:B34"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="G2:G4 G6:G7">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F507">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G$1:G$1048576">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G1:G1048576">
       <formula1>"完成,进行中,未开始,——"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/出入库自动化用例.xlsx
+++ b/出入库自动化用例.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="96">
   <si>
     <t>一级菜单</t>
   </si>
@@ -355,6 +355,17 @@
   </si>
   <si>
     <t>1、品种分类列表数据查询显示</t>
+  </si>
+  <si>
+    <t>黄蕾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+  </si>
+  <si>
+    <t>黄蕾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -420,57 +431,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -493,6 +454,74 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -509,7 +538,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -791,8 +820,8 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -969,6 +998,12 @@
       <c r="F9" t="s">
         <v>13</v>
       </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="216" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
@@ -1011,6 +1046,12 @@
       <c r="F12" t="s">
         <v>13</v>
       </c>
+      <c r="G12" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="5"/>
@@ -1022,6 +1063,12 @@
       </c>
       <c r="F13" t="s">
         <v>13</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
@@ -1352,7 +1399,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G2:G4 G6:G7">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/出入库自动化用例.xlsx
+++ b/出入库自动化用例.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\d-test\zidonghua\IdeaProjects\Automation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F403CA0-F8E9-4388-9E3A-ADD7DF68CA9B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="7950"/>
+    <workbookView xWindow="348" yWindow="696" windowWidth="18900" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="97">
   <si>
     <t>一级菜单</t>
   </si>
@@ -367,11 +373,15 @@
     <t>黄蕾</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>钱舒颖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -454,77 +464,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -538,7 +483,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -573,7 +518,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -606,9 +551,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -641,6 +603,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -816,28 +795,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.25" customWidth="1"/>
+    <col min="1" max="1" width="13.21875" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.625" customWidth="1"/>
-    <col min="4" max="4" width="36.75" customWidth="1"/>
-    <col min="5" max="5" width="18.125" customWidth="1"/>
-    <col min="6" max="6" width="12.875" customWidth="1"/>
-    <col min="7" max="7" width="11.375" customWidth="1"/>
-    <col min="8" max="8" width="17.25" customWidth="1"/>
-    <col min="9" max="9" width="11.75" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="36.77734375" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="17.21875" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -866,7 +845,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
@@ -889,7 +868,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" t="s">
@@ -908,7 +887,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" t="s">
@@ -924,7 +903,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" t="s">
@@ -943,7 +922,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="6" t="s">
         <v>24</v>
@@ -957,8 +936,14 @@
       <c r="F6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" t="s">
@@ -970,8 +955,14 @@
       <c r="F7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" t="s">
@@ -983,8 +974,14 @@
       <c r="F8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="1" t="s">
         <v>31</v>
@@ -1005,7 +1002,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="216" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" ht="259.2" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="6" t="s">
         <v>33</v>
@@ -1020,7 +1017,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" t="s">
@@ -1033,7 +1030,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>38</v>
       </c>
@@ -1053,7 +1050,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" t="s">
         <v>41</v>
@@ -1071,7 +1068,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" t="s">
         <v>43</v>
@@ -1083,7 +1080,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" t="s">
         <v>45</v>
@@ -1095,7 +1092,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" t="s">
         <v>47</v>
@@ -1107,7 +1104,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" t="s">
         <v>49</v>
@@ -1122,7 +1119,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" t="s">
         <v>52</v>
@@ -1134,7 +1131,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="6" t="s">
         <v>54</v>
@@ -1149,7 +1146,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" t="s">
@@ -1162,7 +1159,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" t="s">
@@ -1178,7 +1175,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="6" t="s">
         <v>61</v>
@@ -1193,7 +1190,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="6"/>
       <c r="C23" t="s">
@@ -1206,7 +1203,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="6" t="s">
         <v>66</v>
@@ -1221,7 +1218,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" t="s">
@@ -1234,7 +1231,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>71</v>
       </c>
@@ -1251,7 +1248,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" t="s">
@@ -1264,7 +1261,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="1" t="s">
         <v>76</v>
@@ -1279,7 +1276,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>78</v>
       </c>
@@ -1299,7 +1296,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="6"/>
       <c r="C30" t="s">
@@ -1315,7 +1312,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="6"/>
       <c r="C31" t="s">
@@ -1331,7 +1328,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="6"/>
       <c r="C32" t="s">
@@ -1347,7 +1344,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="6" t="s">
         <v>88</v>
@@ -1365,7 +1362,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="6"/>
       <c r="C34" t="s">
@@ -1409,10 +1406,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F507">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F507" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G1:G1048576">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G1:G1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"完成,进行中,未开始,——"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1422,12 +1419,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1435,12 +1432,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/出入库自动化用例.xlsx
+++ b/出入库自动化用例.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\d-test\zidonghua\IdeaProjects\Automation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F403CA0-F8E9-4388-9E3A-ADD7DF68CA9B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="696" windowWidth="18900" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="690" windowWidth="18900" windowHeight="10920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="101">
   <si>
     <t>一级菜单</t>
   </si>
@@ -377,11 +371,27 @@
     <t>钱舒颖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>吴岑龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱舒颖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱舒颖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱舒颖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -518,7 +528,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -551,26 +561,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -603,23 +596,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -795,28 +771,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.21875" customWidth="1"/>
+    <col min="1" max="1" width="13.25" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="36.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1"/>
-    <col min="8" max="8" width="17.21875" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" customWidth="1"/>
+    <col min="3" max="3" width="14.625" customWidth="1"/>
+    <col min="4" max="4" width="36.75" customWidth="1"/>
+    <col min="5" max="5" width="18.125" customWidth="1"/>
+    <col min="6" max="6" width="12.875" customWidth="1"/>
+    <col min="7" max="7" width="11.375" customWidth="1"/>
+    <col min="8" max="8" width="17.25" customWidth="1"/>
+    <col min="9" max="9" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -845,7 +821,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
@@ -868,7 +844,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" t="s">
@@ -887,7 +863,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" t="s">
@@ -903,7 +879,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" t="s">
@@ -922,7 +898,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
       <c r="B6" s="6" t="s">
         <v>24</v>
@@ -943,7 +919,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" t="s">
@@ -962,7 +938,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" t="s">
@@ -978,10 +954,10 @@
         <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A9" s="5"/>
       <c r="B9" s="1" t="s">
         <v>31</v>
@@ -1002,7 +978,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="259.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="131.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
       <c r="B10" s="6" t="s">
         <v>33</v>
@@ -1016,8 +992,14 @@
       <c r="F10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" t="s">
@@ -1029,8 +1011,14 @@
       <c r="F11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>38</v>
       </c>
@@ -1050,7 +1038,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="5"/>
       <c r="B13" t="s">
         <v>41</v>
@@ -1068,7 +1056,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="5"/>
       <c r="B14" t="s">
         <v>43</v>
@@ -1080,7 +1068,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
       <c r="B15" t="s">
         <v>45</v>
@@ -1092,7 +1080,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
       <c r="B16" t="s">
         <v>47</v>
@@ -1104,7 +1092,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="5"/>
       <c r="B17" t="s">
         <v>49</v>
@@ -1115,11 +1103,14 @@
       <c r="F17" t="s">
         <v>19</v>
       </c>
+      <c r="G17" t="s">
+        <v>20</v>
+      </c>
       <c r="H17" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="5"/>
       <c r="B18" t="s">
         <v>52</v>
@@ -1131,7 +1122,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
       <c r="B19" s="6" t="s">
         <v>54</v>
@@ -1146,7 +1137,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" t="s">
@@ -1159,7 +1150,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" t="s">
@@ -1175,7 +1166,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A22" s="5"/>
       <c r="B22" s="6" t="s">
         <v>61</v>
@@ -1189,8 +1180,11 @@
       <c r="F22" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="I22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A23" s="5"/>
       <c r="B23" s="6"/>
       <c r="C23" t="s">
@@ -1202,8 +1196,11 @@
       <c r="F23" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="I23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A24" s="5"/>
       <c r="B24" s="6" t="s">
         <v>66</v>
@@ -1217,8 +1214,11 @@
       <c r="F24" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="I24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" t="s">
@@ -1230,8 +1230,11 @@
       <c r="F25" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="I25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
         <v>71</v>
       </c>
@@ -1248,7 +1251,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" t="s">
@@ -1261,7 +1264,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="1" t="s">
         <v>76</v>
@@ -1276,7 +1279,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
         <v>78</v>
       </c>
@@ -1296,7 +1299,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A30" s="5"/>
       <c r="B30" s="6"/>
       <c r="C30" t="s">
@@ -1312,7 +1315,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="5"/>
       <c r="B31" s="6"/>
       <c r="C31" t="s">
@@ -1328,7 +1331,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A32" s="5"/>
       <c r="B32" s="6"/>
       <c r="C32" t="s">
@@ -1344,7 +1347,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="5"/>
       <c r="B33" s="6" t="s">
         <v>88</v>
@@ -1362,7 +1365,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="5"/>
       <c r="B34" s="6"/>
       <c r="C34" t="s">
@@ -1406,10 +1409,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F507" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F507">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G1:G1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G1:G1048576">
       <formula1>"完成,进行中,未开始,——"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1419,12 +1422,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1432,12 +1435,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/出入库自动化用例.xlsx
+++ b/出入库自动化用例.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="102">
   <si>
     <t>一级菜单</t>
   </si>
@@ -140,12 +140,260 @@
     <t>审批处理</t>
   </si>
   <si>
-    <t>1、待审数据条件查询
+    <t>审批查询</t>
+  </si>
+  <si>
+    <t>1、列表数据查询显示
+2、数据审核信息查看</t>
+  </si>
+  <si>
+    <t>智能出入库</t>
+  </si>
+  <si>
+    <t>登记管理</t>
+  </si>
+  <si>
+    <t>调度管理</t>
+  </si>
+  <si>
+    <t>扦样管理</t>
+  </si>
+  <si>
+    <t>1、扦样单模拟生成</t>
+  </si>
+  <si>
+    <t>检验管理</t>
+  </si>
+  <si>
+    <t>1、检验信息录入</t>
+  </si>
+  <si>
+    <t>检斤管理</t>
+  </si>
+  <si>
+    <t>1、称毛信息录入
+2、称皮信息录入</t>
+  </si>
+  <si>
+    <t>值仓查询</t>
+  </si>
+  <si>
+    <t>1、值仓查询列表数据查看</t>
+  </si>
+  <si>
+    <t>APP端数据相关，暂不涉及</t>
+  </si>
+  <si>
+    <t>库内结算</t>
+  </si>
+  <si>
+    <t>1、库内结算信息处理</t>
+  </si>
+  <si>
+    <t>实时监控</t>
+  </si>
+  <si>
+    <t>流程监控</t>
+  </si>
+  <si>
+    <t>1、出入库环节数据统计
+2、流程监控列表数据查询</t>
+  </si>
+  <si>
+    <t>出入库作业中止</t>
+  </si>
+  <si>
+    <t>1、出入库作业信息列表查询
+2、出入库作业环节中止</t>
+  </si>
+  <si>
+    <t>作业图像查询</t>
+  </si>
+  <si>
+    <t>硬件数据读取，不涉及</t>
+  </si>
+  <si>
+    <t>手工录入</t>
+  </si>
+  <si>
+    <t>入库单录入</t>
+  </si>
+  <si>
+    <t>1、新增入库单
+2、入库单列表条件查询
+3、入库单提交审核</t>
+  </si>
+  <si>
+    <t>出库单录入</t>
+  </si>
+  <si>
+    <t>1、新增出库单
+2、出库单列表条件查询
+3、出库单提交审核</t>
+  </si>
+  <si>
+    <t>出入库单管理</t>
+  </si>
+  <si>
+    <t>入库单管理</t>
+  </si>
+  <si>
+    <t>1、入库单列表数据查询
+2、入库单数据调整
+3、入库单作废</t>
+  </si>
+  <si>
+    <t>出库单管理</t>
+  </si>
+  <si>
+    <t>1、出库单列表数据查询
+2、出库单数据调整
+3、出库单作废</t>
+  </si>
+  <si>
+    <t>质检管理</t>
+  </si>
+  <si>
+    <t>质检报告单</t>
+  </si>
+  <si>
+    <t>1、新增质检报告单
+2、质检报告单列表查询
+3、提交审核质检报告单
+4、质检报告单发起流程</t>
+  </si>
+  <si>
+    <t>不宜存粮管理</t>
+  </si>
+  <si>
+    <t>1、不宜存粮列表查询
+2、不宜存粮跟踪处理</t>
+  </si>
+  <si>
+    <t>质量台账</t>
+  </si>
+  <si>
+    <t>1、台账数据列表查询
+2、台账数据分类查询</t>
+  </si>
+  <si>
+    <t>库存管理</t>
+  </si>
+  <si>
+    <t>初期库存</t>
+  </si>
+  <si>
+    <t>1、新增仓房初期库存
+2、初期库存列表数据查询
+3、提交审核初期库存数据</t>
+  </si>
+  <si>
+    <t>姜炜</t>
+  </si>
+  <si>
+    <t>库存属性调整</t>
+  </si>
+  <si>
+    <t>1、新增库存属性调整数据
+2、库存属性调整数据列表查询
+3、提交审核库存属性调整信息</t>
+  </si>
+  <si>
+    <t>损溢管理</t>
+  </si>
+  <si>
+    <t>1、新增仓房损溢管理信息
+2、提交审核损溢管理数据</t>
+  </si>
+  <si>
+    <t>倒仓作业</t>
+  </si>
+  <si>
+    <t>1、新增倒仓信息
+2、倒仓数据列表查询
+3、提交审核倒仓数据
+4、倒仓数据记账</t>
+  </si>
+  <si>
+    <t>库存查询</t>
+  </si>
+  <si>
+    <t>库存查询-仓房</t>
+  </si>
+  <si>
+    <t>1、仓房分类列表数据查询显示</t>
+  </si>
+  <si>
+    <t>库存查询-品种</t>
+  </si>
+  <si>
+    <t>1、品种分类列表数据查询显示</t>
+  </si>
+  <si>
+    <t>黄蕾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+  </si>
+  <si>
+    <t>黄蕾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱舒颖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴岑龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱舒颖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱舒颖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱舒颖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、调度管理列表数据查询
+2、调度分配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、新增入库入门登记
+2、新增出库入门登记
+3、出门登记确认   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3、出门登记确认 
+后面再做   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1、待审数据条件查询
 2、数据审核通过（审核名目）
 【合同数据审批（通过、驳回）】
 【购销计划数据审批（通过、驳回）】
 【轮换计划数据审批（通过、驳回）】
-【调入调出计划数据审批（通过、驳回）】
+【调入调出计划数据审批（通过、驳回）】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 【入库通知书数据审批（通过、驳回）】
 【出库通知书数据审批（通过、驳回）】
 【出库提货单数据审批（通过、驳回）】
@@ -156,235 +404,7 @@
 【库存属性调整数据审批（通过、驳回）】
 【损溢管理数据审批（通过、驳回）】
 【倒仓作业数据审批（通过、驳回）】</t>
-  </si>
-  <si>
-    <t>审批查询</t>
-  </si>
-  <si>
-    <t>1、列表数据查询显示
-2、数据审核信息查看</t>
-  </si>
-  <si>
-    <t>智能出入库</t>
-  </si>
-  <si>
-    <t>登记管理</t>
-  </si>
-  <si>
-    <t>1、新增入库入门登记
-2、新增出库入门登记
-3、出门登记确认</t>
-  </si>
-  <si>
-    <t>调度管理</t>
-  </si>
-  <si>
-    <t>1、调度管理列表数据查询
-2、调度分配</t>
-  </si>
-  <si>
-    <t>扦样管理</t>
-  </si>
-  <si>
-    <t>1、扦样单模拟生成</t>
-  </si>
-  <si>
-    <t>检验管理</t>
-  </si>
-  <si>
-    <t>1、检验信息录入</t>
-  </si>
-  <si>
-    <t>检斤管理</t>
-  </si>
-  <si>
-    <t>1、称毛信息录入
-2、称皮信息录入</t>
-  </si>
-  <si>
-    <t>值仓查询</t>
-  </si>
-  <si>
-    <t>1、值仓查询列表数据查看</t>
-  </si>
-  <si>
-    <t>APP端数据相关，暂不涉及</t>
-  </si>
-  <si>
-    <t>库内结算</t>
-  </si>
-  <si>
-    <t>1、库内结算信息处理</t>
-  </si>
-  <si>
-    <t>实时监控</t>
-  </si>
-  <si>
-    <t>流程监控</t>
-  </si>
-  <si>
-    <t>1、出入库环节数据统计
-2、流程监控列表数据查询</t>
-  </si>
-  <si>
-    <t>出入库作业中止</t>
-  </si>
-  <si>
-    <t>1、出入库作业信息列表查询
-2、出入库作业环节中止</t>
-  </si>
-  <si>
-    <t>作业图像查询</t>
-  </si>
-  <si>
-    <t>硬件数据读取，不涉及</t>
-  </si>
-  <si>
-    <t>手工录入</t>
-  </si>
-  <si>
-    <t>入库单录入</t>
-  </si>
-  <si>
-    <t>1、新增入库单
-2、入库单列表条件查询
-3、入库单提交审核</t>
-  </si>
-  <si>
-    <t>出库单录入</t>
-  </si>
-  <si>
-    <t>1、新增出库单
-2、出库单列表条件查询
-3、出库单提交审核</t>
-  </si>
-  <si>
-    <t>出入库单管理</t>
-  </si>
-  <si>
-    <t>入库单管理</t>
-  </si>
-  <si>
-    <t>1、入库单列表数据查询
-2、入库单数据调整
-3、入库单作废</t>
-  </si>
-  <si>
-    <t>出库单管理</t>
-  </si>
-  <si>
-    <t>1、出库单列表数据查询
-2、出库单数据调整
-3、出库单作废</t>
-  </si>
-  <si>
-    <t>质检管理</t>
-  </si>
-  <si>
-    <t>质检报告单</t>
-  </si>
-  <si>
-    <t>1、新增质检报告单
-2、质检报告单列表查询
-3、提交审核质检报告单
-4、质检报告单发起流程</t>
-  </si>
-  <si>
-    <t>不宜存粮管理</t>
-  </si>
-  <si>
-    <t>1、不宜存粮列表查询
-2、不宜存粮跟踪处理</t>
-  </si>
-  <si>
-    <t>质量台账</t>
-  </si>
-  <si>
-    <t>1、台账数据列表查询
-2、台账数据分类查询</t>
-  </si>
-  <si>
-    <t>库存管理</t>
-  </si>
-  <si>
-    <t>初期库存</t>
-  </si>
-  <si>
-    <t>1、新增仓房初期库存
-2、初期库存列表数据查询
-3、提交审核初期库存数据</t>
-  </si>
-  <si>
-    <t>姜炜</t>
-  </si>
-  <si>
-    <t>库存属性调整</t>
-  </si>
-  <si>
-    <t>1、新增库存属性调整数据
-2、库存属性调整数据列表查询
-3、提交审核库存属性调整信息</t>
-  </si>
-  <si>
-    <t>损溢管理</t>
-  </si>
-  <si>
-    <t>1、新增仓房损溢管理信息
-2、提交审核损溢管理数据</t>
-  </si>
-  <si>
-    <t>倒仓作业</t>
-  </si>
-  <si>
-    <t>1、新增倒仓信息
-2、倒仓数据列表查询
-3、提交审核倒仓数据
-4、倒仓数据记账</t>
-  </si>
-  <si>
-    <t>库存查询</t>
-  </si>
-  <si>
-    <t>库存查询-仓房</t>
-  </si>
-  <si>
-    <t>1、仓房分类列表数据查询显示</t>
-  </si>
-  <si>
-    <t>库存查询-品种</t>
-  </si>
-  <si>
-    <t>1、品种分类列表数据查询显示</t>
-  </si>
-  <si>
-    <t>黄蕾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进行中</t>
-  </si>
-  <si>
-    <t>黄蕾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钱舒颖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴岑龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钱舒颖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钱舒颖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钱舒颖</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -392,7 +412,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -403,6 +423,14 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -427,7 +455,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -446,6 +474,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -775,8 +806,8 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -916,7 +947,7 @@
         <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
@@ -935,7 +966,7 @@
         <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
@@ -954,7 +985,7 @@
         <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
@@ -975,7 +1006,7 @@
         <v>14</v>
       </c>
       <c r="I9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="131.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -986,65 +1017,68 @@
       <c r="C10" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>35</v>
+      <c r="D10" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>91</v>
+      </c>
+      <c r="I10" t="s">
         <v>94</v>
-      </c>
-      <c r="I10" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="F11" t="s">
         <v>13</v>
       </c>
       <c r="G11" t="s">
+        <v>91</v>
+      </c>
+      <c r="I11" t="s">
         <v>94</v>
-      </c>
-      <c r="I11" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
         <v>38</v>
       </c>
-      <c r="B12" t="s">
-        <v>39</v>
-      </c>
       <c r="D12" s="2" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>94</v>
+        <v>14</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="I12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="5"/>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -1053,16 +1087,16 @@
         <v>14</v>
       </c>
       <c r="I13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="5"/>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
@@ -1071,10 +1105,10 @@
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
         <v>13</v>
@@ -1083,10 +1117,10 @@
     <row r="16" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
         <v>13</v>
@@ -1095,10 +1129,10 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="5"/>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F17" t="s">
         <v>19</v>
@@ -1107,16 +1141,16 @@
         <v>20</v>
       </c>
       <c r="H17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="5"/>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F18" t="s">
         <v>13</v>
@@ -1125,13 +1159,13 @@
     <row r="19" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
       <c r="B19" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F19" t="s">
         <v>13</v>
@@ -1141,10 +1175,10 @@
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F20" t="s">
         <v>13</v>
@@ -1154,7 +1188,7 @@
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F21" t="s">
         <v>19</v>
@@ -1163,89 +1197,89 @@
         <v>20</v>
       </c>
       <c r="H21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A22" s="5"/>
       <c r="B22" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F22" t="s">
         <v>13</v>
       </c>
       <c r="I22" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A23" s="5"/>
       <c r="B23" s="6"/>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F23" t="s">
         <v>13</v>
       </c>
       <c r="I23" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A24" s="5"/>
       <c r="B24" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C24" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F24" t="s">
         <v>13</v>
       </c>
       <c r="I24" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F25" t="s">
         <v>13</v>
       </c>
       <c r="I25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F26" t="s">
         <v>13</v>
@@ -1255,10 +1289,10 @@
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F27" t="s">
         <v>13</v>
@@ -1267,13 +1301,13 @@
     <row r="28" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C28" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F28" t="s">
         <v>13</v>
@@ -1281,104 +1315,104 @@
     </row>
     <row r="29" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" t="s">
         <v>78</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C29" t="s">
-        <v>79</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F29" t="s">
-        <v>13</v>
-      </c>
-      <c r="I29" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A30" s="5"/>
       <c r="B30" s="6"/>
       <c r="C30" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F30" t="s">
         <v>13</v>
       </c>
       <c r="I30" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="5"/>
       <c r="B31" s="6"/>
       <c r="C31" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F31" t="s">
         <v>13</v>
       </c>
       <c r="I31" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A32" s="5"/>
       <c r="B32" s="6"/>
       <c r="C32" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F32" t="s">
         <v>13</v>
       </c>
       <c r="I32" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="5"/>
       <c r="B33" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C33" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D33" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F33" t="s">
         <v>13</v>
       </c>
       <c r="I33" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="5"/>
       <c r="B34" s="6"/>
       <c r="C34" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D34" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F34" t="s">
         <v>13</v>
       </c>
       <c r="I34" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1417,7 +1451,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/出入库自动化用例.xlsx
+++ b/出入库自动化用例.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="101">
   <si>
     <t>一级菜单</t>
   </si>
@@ -334,9 +334,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>进行中</t>
-  </si>
-  <si>
     <t>黄蕾</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -380,10 +377,10 @@
     <r>
       <t>1、待审数据条件查询
 2、数据审核通过（审核名目）
-【合同数据审批（通过、驳回）】
-【购销计划数据审批（通过、驳回）】
-【轮换计划数据审批（通过、驳回）】
-【调入调出计划数据审批（通过、驳回）】</t>
+【合同数据审批】
+【购销计划数据审批】
+【轮换计划数据审批】
+【调入调出计划数据审批】</t>
     </r>
     <r>
       <rPr>
@@ -394,16 +391,16 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-【入库通知书数据审批（通过、驳回）】
-【出库通知书数据审批（通过、驳回）】
-【出库提货单数据审批（通过、驳回）】
-【入库单录入数据审批（通过、驳回）】
-【出库单录入数据审批（通过、驳回）】
-【质检报告单数据审批（通过、驳回）】
-【初期库存数据审批（通过、驳回）】
-【库存属性调整数据审批（通过、驳回）】
-【损溢管理数据审批（通过、驳回）】
-【倒仓作业数据审批（通过、驳回）】</t>
+【入库通知书数据审批】
+【出库通知书数据审批】
+【出库提货单数据审批】
+【入库单录入数据审批】
+【出库单录入数据审批】
+【质检报告单数据审批】
+【初期库存数据审批】
+【库存属性调整数据审批】
+【损溢管理数据审批】
+【倒仓作业数据审批】</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -469,14 +466,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -807,7 +804,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -853,10 +850,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="s">
@@ -876,8 +873,8 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
       <c r="C3" t="s">
         <v>16</v>
       </c>
@@ -895,8 +892,8 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
       <c r="C4" t="s">
         <v>18</v>
       </c>
@@ -911,8 +908,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
       <c r="C5" t="s">
         <v>22</v>
       </c>
@@ -930,8 +927,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C6" t="s">
@@ -947,12 +944,12 @@
         <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
       <c r="C7" t="s">
         <v>27</v>
       </c>
@@ -966,12 +963,12 @@
         <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -985,11 +982,11 @@
         <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="5"/>
+      <c r="A9" s="6"/>
       <c r="B9" s="1" t="s">
         <v>31</v>
       </c>
@@ -1010,29 +1007,29 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="131.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C10" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>101</v>
+      <c r="D10" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="I10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
       <c r="C11" t="s">
         <v>35</v>
       </c>
@@ -1043,21 +1040,21 @@
         <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="I11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B12" t="s">
         <v>38</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
@@ -1066,19 +1063,19 @@
         <v>14</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A13" s="5"/>
+      <c r="A13" s="6"/>
       <c r="B13" t="s">
         <v>39</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -1087,11 +1084,11 @@
         <v>14</v>
       </c>
       <c r="I13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="5"/>
+      <c r="A14" s="6"/>
       <c r="B14" t="s">
         <v>40</v>
       </c>
@@ -1103,7 +1100,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="5"/>
+      <c r="A15" s="6"/>
       <c r="B15" t="s">
         <v>42</v>
       </c>
@@ -1115,7 +1112,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A16" s="5"/>
+      <c r="A16" s="6"/>
       <c r="B16" t="s">
         <v>44</v>
       </c>
@@ -1127,7 +1124,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="5"/>
+      <c r="A17" s="6"/>
       <c r="B17" t="s">
         <v>46</v>
       </c>
@@ -1145,7 +1142,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="5"/>
+      <c r="A18" s="6"/>
       <c r="B18" t="s">
         <v>49</v>
       </c>
@@ -1157,8 +1154,8 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6" t="s">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7" t="s">
         <v>51</v>
       </c>
       <c r="C19" t="s">
@@ -1172,8 +1169,8 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
       <c r="C20" t="s">
         <v>54</v>
       </c>
@@ -1185,8 +1182,8 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
       <c r="C21" t="s">
         <v>56</v>
       </c>
@@ -1201,8 +1198,8 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6" t="s">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7" t="s">
         <v>58</v>
       </c>
       <c r="C22" t="s">
@@ -1215,12 +1212,12 @@
         <v>13</v>
       </c>
       <c r="I22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
       <c r="C23" t="s">
         <v>61</v>
       </c>
@@ -1231,12 +1228,12 @@
         <v>13</v>
       </c>
       <c r="I23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6" t="s">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7" t="s">
         <v>63</v>
       </c>
       <c r="C24" t="s">
@@ -1249,12 +1246,12 @@
         <v>13</v>
       </c>
       <c r="I24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
       <c r="C25" t="s">
         <v>66</v>
       </c>
@@ -1265,14 +1262,14 @@
         <v>13</v>
       </c>
       <c r="I25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="54" x14ac:dyDescent="0.15">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="7" t="s">
         <v>68</v>
       </c>
       <c r="C26" t="s">
@@ -1286,8 +1283,8 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
       <c r="C27" t="s">
         <v>71</v>
       </c>
@@ -1299,7 +1296,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A28" s="5"/>
+      <c r="A28" s="6"/>
       <c r="B28" s="1" t="s">
         <v>73</v>
       </c>
@@ -1314,10 +1311,10 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="7" t="s">
         <v>75</v>
       </c>
       <c r="C29" t="s">
@@ -1334,8 +1331,8 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="7"/>
       <c r="C30" t="s">
         <v>79</v>
       </c>
@@ -1350,8 +1347,8 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="7"/>
       <c r="C31" t="s">
         <v>81</v>
       </c>
@@ -1366,8 +1363,8 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="54" x14ac:dyDescent="0.15">
-      <c r="A32" s="5"/>
-      <c r="B32" s="6"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="7"/>
       <c r="C32" t="s">
         <v>83</v>
       </c>
@@ -1382,8 +1379,8 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A33" s="5"/>
-      <c r="B33" s="6" t="s">
+      <c r="A33" s="6"/>
+      <c r="B33" s="7" t="s">
         <v>85</v>
       </c>
       <c r="C33" t="s">
@@ -1400,8 +1397,8 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="5"/>
-      <c r="B34" s="6"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="7"/>
       <c r="C34" t="s">
         <v>88</v>
       </c>

--- a/出入库自动化用例.xlsx
+++ b/出入库自动化用例.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="102">
   <si>
     <t>一级菜单</t>
   </si>
@@ -403,6 +403,9 @@
 【倒仓作业数据审批】</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
   </si>
 </sst>
 </file>
@@ -479,7 +482,17 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -803,8 +816,8 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1098,6 +1111,12 @@
       <c r="F14" t="s">
         <v>13</v>
       </c>
+      <c r="G14" t="s">
+        <v>101</v>
+      </c>
+      <c r="I14" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
@@ -1109,6 +1128,12 @@
       </c>
       <c r="F15" t="s">
         <v>13</v>
+      </c>
+      <c r="G15" t="s">
+        <v>101</v>
+      </c>
+      <c r="I15" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="27" x14ac:dyDescent="0.15">
@@ -1430,21 +1455,24 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G2:G4 G6:G7">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F507">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G1:G1048576">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G1048576">
       <formula1>"完成,进行中,未开始,——"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G1">
+      <formula1>"完成,进行中,未开始,待调试,——"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
